--- a/カラム分類_英語_marker.xlsx
+++ b/カラム分類_英語_marker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\永井　健介\Git_local\My_Trade_Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00628132-ACA1-4A4A-9B5B-D6D8FB65B7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B66752-CE2F-4503-9056-A793C8CFD258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17370" yWindow="2205" windowWidth="22875" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,14 +120,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Buy_Close_OrderTime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Buy_Close_ExecTime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Buy_Stop_OrderTime</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -135,42 +127,53 @@
     <t>Sell_New_OrderTime</t>
   </si>
   <si>
-    <t>Sell_Close_OrderTime</t>
-  </si>
-  <si>
-    <t>Sell_Close_ExecTime</t>
+    <t>Sell_Stop_ExecTime</t>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆</t>
+  </si>
+  <si>
+    <t>●</t>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▲</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>■</t>
+  </si>
+  <si>
+    <t>＋</t>
+  </si>
+  <si>
+    <t>Buy_Settle_OrderTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Buy_Settle_ExecTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sell_Settle_OrderTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sell_Settle_ExecTime</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Sell_Stop_OrderTime</t>
-  </si>
-  <si>
-    <t>Sell_Stop_ExecTime</t>
-  </si>
-  <si>
-    <t>red</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>◆</t>
-  </si>
-  <si>
-    <t>●</t>
-  </si>
-  <si>
-    <t>blue</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>▲</t>
-  </si>
-  <si>
-    <t>×</t>
-  </si>
-  <si>
-    <t>■</t>
-  </si>
-  <si>
-    <t>＋</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -535,7 +538,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -545,6 +548,11 @@
     <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.75" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="23.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -707,110 +715,110 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="J6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="3:3">
